--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\IdeaProjects\com.agileswiftcargo\src\test\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB71504D-717B-4B7A-A616-90CDB10FBEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7950"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
+    <sheet name="merchantLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="adminLogin" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,31 +22,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>password124</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>USERNAME</t>
   </si>
   <si>
     <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>hasan.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>Agile.0924</t>
+  </si>
+  <si>
+    <t>gulpembe.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>bugra.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>ilgar.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>berranur.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>burhan.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>emrah.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>pouneh.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>hasan.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>gulpembe.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>bugra.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>ilgar.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>berranur.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>burhan.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>emrah.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>pouneh.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>gulcihan.admin@agileswiftcargo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,16 +97,58 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F4E78"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F4E78"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -66,25 +156,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -122,7 +354,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -156,6 +388,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -190,9 +423,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -365,40 +599,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -408,24 +690,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\IdeaProjects\com.agileswiftcargo\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB71504D-717B-4B7A-A616-90CDB10FBEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F8A334-0A7D-479C-A06D-66B5FDA8274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merchantLogin" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>hasan.merchant@agileswiftcargo.com</t>
   </si>
@@ -82,13 +76,49 @@
   </si>
   <si>
     <t>gulcihan.admin@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>gulcihan.merchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>1.column</t>
+  </si>
+  <si>
+    <t>2.row</t>
+  </si>
+  <si>
+    <t>3.row</t>
+  </si>
+  <si>
+    <t>4.row</t>
+  </si>
+  <si>
+    <t>5.row</t>
+  </si>
+  <si>
+    <t>6.row</t>
+  </si>
+  <si>
+    <t>7.row</t>
+  </si>
+  <si>
+    <t>8.row</t>
+  </si>
+  <si>
+    <t>9.row</t>
+  </si>
+  <si>
+    <t>2.column</t>
+  </si>
+  <si>
+    <t>1.row</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +126,6 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
     <font>
       <sz val="10"/>
@@ -119,71 +142,29 @@
       <charset val="162"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -261,40 +242,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,187 +564,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="mailto:selgun.merchant@agileswiftcargo.com" xr:uid="{14404623-CEC3-42AE-A92B-B76F9B98E89D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>3</v>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toshiba\IdeaProjects\com.agileswiftcargo\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F8A334-0A7D-479C-A06D-66B5FDA8274E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D130646-7482-4A6D-A097-20DE8C6AAFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>hasan.merchant@agileswiftcargo.com</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>1.row</t>
+  </si>
+  <si>
+    <t>gulpembemerchant@agileswiftcargo.com</t>
+  </si>
+  <si>
+    <t>10.row</t>
+  </si>
+  <si>
+    <t>Agile.0925</t>
   </si>
 </sst>
 </file>
@@ -244,16 +253,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
@@ -684,9 +693,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="mailto:selgun.merchant@agileswiftcargo.com" xr:uid="{14404623-CEC3-42AE-A92B-B76F9B98E89D}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{FA18FB9C-3B82-4B20-9778-4A8B0712DB18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
